--- a/biology/Histoire de la zoologie et de la botanique/Amé_Bourdon/Amé_Bourdon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amé_Bourdon/Amé_Bourdon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9_Bourdon</t>
+          <t>Amé_Bourdon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amé Bourdon (né à Cambrai en 1636 ou 1638 – mort le 21 décembre 1706) est un médecin et anatomiste français.
 Fils d'un ingénieur au service de la couronne d'Espagne, Bourdon étudia les sciences de manière intensive afin de se présenter à l'université de Douai, à l'âge de 37 ans. On sait peu de choses de lui, si ce n'est qu'il pratiqua la médecine à Cambrai pendant une grande partie de sa vie. Il mourut le 21 décembre 1706.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9_Bourdon</t>
+          <t>Amé_Bourdon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nouvelle Description anatomique de toutes les parties du corps humain, et de leurs usages : avec le cours de toutes les humeurs. Sur le principe de la circulation, et conformément aux nouvelles découvertes — L'année est donnée comme « MDCLXXVIX ».
 Deuxième édition, 1683
